--- a/dtpu_configurations/only_integer16/50mhz/mxu_7x7/timing.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_7x7/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>7.705943584442139</v>
+        <v>5.7688751220703125</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.02371947094798088</v>
+        <v>0.009592327289283276</v>
       </c>
     </row>
   </sheetData>
